--- a/Related_work/TRelatedWork.xlsx
+++ b/Related_work/TRelatedWork.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView windowWidth="19200" windowHeight="6880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Paper" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Paper!$A$1:$K$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Map!$A$1:$B$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="166">
   <si>
     <t>RID</t>
   </si>
@@ -182,6 +183,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. Remote sensor attacks: Identity spoofing</t>
     </r>
     <r>
@@ -1311,16 +1318,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1346,15 +1350,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1676,7 +1671,7 @@
   <sheetPr/>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1688,537 +1683,537 @@
     <col min="6" max="6" width="78.5090909090909" customWidth="1"/>
     <col min="7" max="7" width="62.3272727272727" customWidth="1"/>
     <col min="8" max="9" width="50.6909090909091" customWidth="1"/>
-    <col min="10" max="10" width="26.2272727272727" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.2272727272727" style="2" customWidth="1"/>
     <col min="11" max="11" width="44.4090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="266" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>13</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>35</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="11">
         <f>H2/I2</f>
         <v>0.371428571428571</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="56.75" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>35</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <f t="shared" ref="J3:J15" si="0">H3/I3</f>
         <v>0.114285714285714</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="210.75" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>14</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>35</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" ht="98" spans="1:11">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>7917080</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>6</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>35</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <f t="shared" si="0"/>
         <v>0.171428571428571</v>
       </c>
-      <c r="K5" s="15"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" ht="168.75" spans="1:11">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>9447840</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>12</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>35</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <f t="shared" si="0"/>
         <v>0.342857142857143</v>
       </c>
-      <c r="K6" s="15"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" ht="98.75" spans="1:11">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>7</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>35</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="11">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="K7" s="15"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="140" spans="1:11">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>10226207</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>10</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>35</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="11">
         <f t="shared" si="0"/>
         <v>0.285714285714286</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="12" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:11">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>10500196</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>35</v>
       </c>
-      <c r="J9" s="15">
-        <f>H9/I9</f>
-        <v>0.142857142857143</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="70.75" spans="1:11">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="4">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="4">
-        <v>5</v>
-      </c>
-      <c r="I10" s="4">
-        <v>35</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="J9" s="11">
         <f t="shared" si="0"/>
         <v>0.142857142857143</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K9" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="70.75" spans="1:11">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>35</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.142857142857143</v>
+      </c>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="168.75" spans="1:11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>17</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>12</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>35</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="11">
         <f t="shared" si="0"/>
         <v>0.342857142857143</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" ht="112.75" spans="1:11">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>11</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>9625017</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>8</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>35</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="11">
         <f t="shared" si="0"/>
         <v>0.228571428571429</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" ht="56.75" spans="1:11">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>5</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>35</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="11">
         <f t="shared" si="0"/>
         <v>0.114285714285714</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" ht="126" spans="1:11">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>9284001</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>13</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>6</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>35</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="11">
         <f t="shared" si="0"/>
         <v>0.171428571428571</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>31</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>35</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="11">
         <f t="shared" si="0"/>
         <v>0.885714285714286</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K15" etc:filterBottomFollowUsedRange="0">
@@ -2233,10 +2228,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -2247,614 +2242,609 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B75" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
